--- a/src/IPC CA RD Y MEX.xlsx
+++ b/src/IPC CA RD Y MEX.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laalvarado\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laalvarado\Documents\GitHub\INE_IPC\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C39A88-E3EE-45E7-8105-2D673320D92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C0D8AD-6B38-4865-8855-8075057233E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,8 @@
     <sheet name="Nicaragua" sheetId="4" r:id="rId4"/>
     <sheet name="Costa Rica" sheetId="5" r:id="rId5"/>
     <sheet name="Republica Dominicana" sheetId="6" r:id="rId6"/>
-    <sheet name="Panama" sheetId="7" r:id="rId7"/>
-    <sheet name="Mexico" sheetId="8" r:id="rId8"/>
+    <sheet name="Panamá" sheetId="7" r:id="rId7"/>
+    <sheet name="México" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -173,12 +173,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1051,7 +1049,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>167.98</v>
       </c>
       <c r="B50" t="s">
@@ -1618,7 +1616,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50">
         <v>128.21</v>
       </c>
       <c r="B50" t="s">
@@ -2150,7 +2148,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>399.2</v>
       </c>
       <c r="B47" t="s">
@@ -2161,7 +2159,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>403.1</v>
       </c>
       <c r="B48" t="s">
@@ -2172,7 +2170,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>404.6</v>
       </c>
       <c r="B49" t="s">
@@ -2183,7 +2181,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>406.3</v>
       </c>
       <c r="B50" t="s">
@@ -2715,7 +2713,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>280</v>
       </c>
       <c r="B47" t="s">
@@ -2726,7 +2724,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>281.89999999999998</v>
       </c>
       <c r="B48" t="s">
@@ -2737,7 +2735,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>286.39999999999998</v>
       </c>
       <c r="B49" t="s">
@@ -3280,7 +3278,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>111.13</v>
       </c>
       <c r="B47" t="s">
@@ -3291,7 +3289,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>111.29</v>
       </c>
       <c r="B48" t="s">
@@ -3302,7 +3300,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>111.44</v>
       </c>
       <c r="B49" t="s">
@@ -3350,7 +3348,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>95.250891820000007</v>
       </c>
       <c r="B2" t="s">
@@ -3361,7 +3359,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>95.604163560000003</v>
       </c>
       <c r="B3" t="s">
@@ -3372,7 +3370,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>96.229748920000006</v>
       </c>
       <c r="B4" t="s">
@@ -3383,7 +3381,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>96.737577040000005</v>
       </c>
       <c r="B5" t="s">
@@ -3394,7 +3392,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>96.708137730000004</v>
       </c>
       <c r="B6" t="s">
@@ -3405,7 +3403,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>96.53150187</v>
       </c>
       <c r="B7" t="s">
@@ -3416,7 +3414,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>96.980451360000004</v>
       </c>
       <c r="B8" t="s">
@@ -3427,7 +3425,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>97.311643619999998</v>
       </c>
       <c r="B9" t="s">
@@ -3438,7 +3436,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>97.679635009999998</v>
       </c>
       <c r="B10" t="s">
@@ -3449,7 +3447,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>98.334659680000001</v>
       </c>
       <c r="B11" t="s">
@@ -3460,7 +3458,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>98.702651079999995</v>
       </c>
       <c r="B12" t="s">
@@ -3471,7 +3469,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>98.901366429999996</v>
       </c>
       <c r="B13" t="s">
@@ -3482,7 +3480,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>99.225198849999998</v>
       </c>
       <c r="B14" t="s">
@@ -3493,7 +3491,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>99.100081779999996</v>
       </c>
       <c r="B15" t="s">
@@ -3504,7 +3502,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <v>98.584893829999999</v>
       </c>
       <c r="B16" t="s">
@@ -3515,7 +3513,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>97.775312769999999</v>
       </c>
       <c r="B17" t="s">
@@ -3526,7 +3524,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>97.664915350000001</v>
       </c>
       <c r="B18" t="s">
@@ -3537,7 +3535,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>99.328236439999998</v>
       </c>
       <c r="B19" t="s">
@@ -3548,7 +3546,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>101.1976327</v>
       </c>
       <c r="B20" t="s">
@@ -3559,7 +3557,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>101.9851343</v>
       </c>
       <c r="B21" t="s">
@@ -3570,7 +3568,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <v>102.596</v>
       </c>
       <c r="B22" t="s">
@@ -3581,7 +3579,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <v>103.276</v>
       </c>
       <c r="B23" t="s">
@@ -3592,7 +3590,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <v>103.893</v>
       </c>
       <c r="B24" t="s">
@@ -3603,7 +3601,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="6">
         <v>104.39400000000001</v>
       </c>
       <c r="B25" t="s">
@@ -3614,7 +3612,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="6">
         <v>105.404</v>
       </c>
       <c r="B26" t="s">
@@ -3625,7 +3623,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="6">
         <v>106.124</v>
       </c>
       <c r="B27" t="s">
@@ -3636,7 +3634,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="6">
         <v>106.764</v>
       </c>
       <c r="B28" t="s">
@@ -3647,7 +3645,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="6">
         <v>107.206</v>
       </c>
       <c r="B29" t="s">
@@ -3658,7 +3656,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="6">
         <v>107.901</v>
       </c>
       <c r="B30" t="s">
@@ -3669,7 +3667,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="6">
         <v>108.58499999999999</v>
       </c>
       <c r="B31" t="s">
@@ -3680,7 +3678,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="6">
         <v>109.16800000000001</v>
       </c>
       <c r="B32" t="s">
@@ -3691,7 +3689,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="6">
         <v>110.039</v>
       </c>
       <c r="B33" t="s">
@@ -3702,7 +3700,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="6">
         <v>110.535</v>
       </c>
       <c r="B34" t="s">
@@ -3713,7 +3711,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="6">
         <v>111.244</v>
       </c>
       <c r="B35" t="s">
@@ -3724,7 +3722,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="6">
         <v>112.446</v>
       </c>
       <c r="B36" t="s">
@@ -3735,7 +3733,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="6">
         <v>113.26300000000001</v>
       </c>
       <c r="B37" t="s">
@@ -3746,7 +3744,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="6">
         <v>114.602</v>
       </c>
       <c r="B38" t="s">
@@ -3757,7 +3755,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="6">
         <v>115.658</v>
       </c>
       <c r="B39" t="s">
@@ -3768,7 +3766,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="6">
         <v>116.431</v>
       </c>
       <c r="B40" t="s">
@@ -3779,7 +3777,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="A41" s="6">
         <v>117.544</v>
       </c>
       <c r="B41" t="s">
@@ -3790,7 +3788,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="A42" s="6">
         <v>118.122</v>
       </c>
       <c r="B42" t="s">
@@ -3801,7 +3799,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="A43" s="6">
         <v>118.877</v>
       </c>
       <c r="B43" t="s">
@@ -3812,7 +3810,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="A44" s="6">
         <v>119.468</v>
       </c>
       <c r="B44" t="s">
@@ -3823,7 +3821,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="A45" s="6">
         <v>119.718</v>
       </c>
       <c r="B45" t="s">
@@ -3834,7 +3832,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="A46" s="6">
         <v>120.07</v>
       </c>
       <c r="B46" t="s">
@@ -3845,7 +3843,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="A47" s="7">
         <v>120.41</v>
       </c>
       <c r="B47" t="s">
@@ -3856,7 +3854,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="A48" s="7">
         <v>120.97</v>
       </c>
       <c r="B48" t="s">
@@ -3867,7 +3865,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="A49" s="7">
         <v>122.13</v>
       </c>
       <c r="B49" t="s">
@@ -3878,7 +3876,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="A50" s="6">
         <v>122.9</v>
       </c>
       <c r="B50" t="s">
@@ -3898,7 +3896,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G61" sqref="F61:G61"/>
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4410,7 +4408,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47" s="5">
         <v>107.5</v>
       </c>
       <c r="B47" t="s">
@@ -4421,7 +4419,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48" s="5">
         <v>107.7</v>
       </c>
       <c r="B48" t="s">
@@ -4432,7 +4430,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="A49" s="5">
         <v>107.8</v>
       </c>
       <c r="B49" t="s">
@@ -4443,7 +4441,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="A50" s="6">
         <v>108.9</v>
       </c>
       <c r="B50" t="s">
@@ -4976,7 +4974,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>125.3</v>
       </c>
       <c r="B47" t="s">
@@ -4987,7 +4985,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>126</v>
       </c>
       <c r="B48" t="s">
@@ -4998,7 +4996,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>126.5</v>
       </c>
       <c r="B49" t="s">

--- a/src/IPC CA RD Y MEX.xlsx
+++ b/src/IPC CA RD Y MEX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laalvarado\Documents\GitHub\INE_IPC\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jo/GitHub/INE_IPC/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C0D8AD-6B38-4865-8855-8075057233E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16C22A1-4B89-9F4E-9533-49C9CA5FD208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3780" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guatemala" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="15">
   <si>
     <t>indice</t>
   </si>
@@ -173,7 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -186,6 +186,8 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,15 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B50" sqref="B47:C50"/>
+      <selection activeCell="B51" sqref="B51:C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>138.97999999999999</v>
       </c>
@@ -531,7 +533,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>139.16999999999999</v>
       </c>
@@ -542,7 +544,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>139.11000000000001</v>
       </c>
@@ -553,7 +555,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>139.94999999999999</v>
       </c>
@@ -564,7 +566,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>140.32</v>
       </c>
@@ -575,7 +577,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>141.47999999999999</v>
       </c>
@@ -586,7 +588,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>141.4</v>
       </c>
@@ -597,7 +599,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>140.18</v>
       </c>
@@ -608,7 +610,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>139.36000000000001</v>
       </c>
@@ -619,7 +621,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>140.33000000000001</v>
       </c>
@@ -630,7 +632,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>140.94999999999999</v>
       </c>
@@ -641,7 +643,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>141.80000000000001</v>
       </c>
@@ -652,7 +654,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>141.46</v>
       </c>
@@ -663,7 +665,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>140.88999999999999</v>
       </c>
@@ -674,7 +676,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>141.57</v>
       </c>
@@ -685,7 +687,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>142.58000000000001</v>
       </c>
@@ -696,7 +698,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>142.85</v>
       </c>
@@ -707,7 +709,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>144.86000000000001</v>
       </c>
@@ -718,7 +720,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>145.47</v>
       </c>
@@ -729,7 +731,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>146.05000000000001</v>
       </c>
@@ -740,7 +742,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>146.28</v>
       </c>
@@ -751,7 +753,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>147.83000000000001</v>
       </c>
@@ -762,7 +764,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>148.65</v>
       </c>
@@ -773,7 +775,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>148.63999999999999</v>
       </c>
@@ -784,7 +786,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>148.87</v>
       </c>
@@ -795,7 +797,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>149.34</v>
       </c>
@@ -806,7 +808,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>149.84</v>
       </c>
@@ -817,7 +819,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>150</v>
       </c>
@@ -828,7 +830,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>150.24</v>
       </c>
@@ -839,7 +841,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>150.52000000000001</v>
       </c>
@@ -850,7 +852,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>151.02000000000001</v>
       </c>
@@ -861,7 +863,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>151.33000000000001</v>
       </c>
@@ -872,7 +874,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>151.65</v>
       </c>
@@ -883,7 +885,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>152.19999999999999</v>
       </c>
@@ -894,7 +896,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>152.94</v>
       </c>
@@ -905,7 +907,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>153.19999999999999</v>
       </c>
@@ -916,7 +918,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>153.13999999999999</v>
       </c>
@@ -927,7 +929,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>153.79</v>
       </c>
@@ -938,7 +940,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>156.09</v>
       </c>
@@ -949,7 +951,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>156.93</v>
       </c>
@@ -960,7 +962,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>158.97999999999999</v>
       </c>
@@ -971,7 +973,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>161.88999999999999</v>
       </c>
@@ -982,7 +984,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>163.63999999999999</v>
       </c>
@@ -993,7 +995,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>164.76</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>165.35</v>
       </c>
@@ -1015,7 +1017,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>166.97</v>
       </c>
@@ -1026,7 +1028,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>166.96</v>
       </c>
@@ -1037,7 +1039,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>167.35</v>
       </c>
@@ -1048,7 +1050,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>167.98</v>
       </c>
@@ -1056,6 +1058,17 @@
         <v>3</v>
       </c>
       <c r="C50">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>169.05</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
         <v>2023</v>
       </c>
     </row>
@@ -1068,15 +1081,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>112.24</v>
       </c>
@@ -1098,7 +1111,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>112.44</v>
       </c>
@@ -1109,7 +1122,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>112.69</v>
       </c>
@@ -1120,7 +1133,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>112.87</v>
       </c>
@@ -1131,7 +1144,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>113.01</v>
       </c>
@@ -1142,7 +1155,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>112.85</v>
       </c>
@@ -1153,7 +1166,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>112.56</v>
       </c>
@@ -1164,7 +1177,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>112.16</v>
       </c>
@@ -1175,7 +1188,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>111.99</v>
       </c>
@@ -1186,7 +1199,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>112.04</v>
       </c>
@@ -1197,7 +1210,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>112.17</v>
       </c>
@@ -1208,7 +1221,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>112.29</v>
       </c>
@@ -1219,7 +1232,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>112.15</v>
       </c>
@@ -1230,7 +1243,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>112</v>
       </c>
@@ -1241,7 +1254,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>112.09</v>
       </c>
@@ -1252,7 +1265,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>111.69</v>
       </c>
@@ -1263,7 +1276,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>111.94</v>
       </c>
@@ -1274,7 +1287,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>112.59</v>
       </c>
@@ -1285,7 +1298,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>112.49</v>
       </c>
@@ -1296,7 +1309,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>111.82</v>
       </c>
@@ -1307,7 +1320,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>111.56</v>
       </c>
@@ -1318,7 +1331,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>111.81</v>
       </c>
@@ -1329,7 +1342,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>111.98</v>
       </c>
@@ -1340,7 +1353,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>112.2</v>
       </c>
@@ -1351,7 +1364,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>112.49</v>
       </c>
@@ -1362,7 +1375,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>113.19</v>
       </c>
@@ -1373,7 +1386,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>114.08</v>
       </c>
@@ -1384,7 +1397,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>114.81</v>
       </c>
@@ -1395,7 +1408,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>114.84</v>
       </c>
@@ -1406,7 +1419,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>115.51</v>
       </c>
@@ -1417,7 +1430,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>116.36</v>
       </c>
@@ -1428,7 +1441,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>116.63</v>
       </c>
@@ -1439,7 +1452,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>117.1</v>
       </c>
@@ -1450,7 +1463,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>117.95</v>
       </c>
@@ -1461,7 +1474,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>118.92</v>
       </c>
@@ -1472,7 +1485,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>119.06</v>
       </c>
@@ -1483,7 +1496,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>119.79</v>
       </c>
@@ -1494,7 +1507,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>120.73</v>
       </c>
@@ -1505,7 +1518,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>121.71</v>
       </c>
@@ -1516,7 +1529,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>122.32</v>
       </c>
@@ -1527,7 +1540,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>123.43</v>
       </c>
@@ -1538,7 +1551,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>124.47</v>
       </c>
@@ -1549,7 +1562,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>124.99</v>
       </c>
@@ -1560,7 +1573,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>125.56</v>
       </c>
@@ -1571,7 +1584,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>125.87</v>
       </c>
@@ -1582,7 +1595,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>126.76</v>
       </c>
@@ -1593,7 +1606,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>127.63</v>
       </c>
@@ -1604,7 +1617,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>127.77</v>
       </c>
@@ -1615,7 +1628,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>128.21</v>
       </c>
@@ -1623,6 +1636,17 @@
         <v>3</v>
       </c>
       <c r="C50">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>128.97</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
         <v>2023</v>
       </c>
     </row>
@@ -1633,15 +1657,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:A50"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1652,7 +1676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>323.3</v>
       </c>
@@ -1663,7 +1687,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>325.8</v>
       </c>
@@ -1674,7 +1698,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>327.10000000000002</v>
       </c>
@@ -1685,7 +1709,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>330.1</v>
       </c>
@@ -1696,7 +1720,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>331.3</v>
       </c>
@@ -1707,7 +1731,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>331.6</v>
       </c>
@@ -1718,7 +1742,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>332.5</v>
       </c>
@@ -1729,7 +1753,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>332.7</v>
       </c>
@@ -1740,7 +1764,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>333.2</v>
       </c>
@@ -1751,7 +1775,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>334</v>
       </c>
@@ -1762,7 +1786,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>335</v>
       </c>
@@ -1773,7 +1797,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>336.4</v>
       </c>
@@ -1784,7 +1808,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>337.2</v>
       </c>
@@ -1795,7 +1819,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>338.8</v>
       </c>
@@ -1806,7 +1830,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>339.8</v>
       </c>
@@ -1817,7 +1841,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>341.1</v>
       </c>
@@ -1828,7 +1852,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>338.9</v>
       </c>
@@ -1839,7 +1863,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>340.4</v>
       </c>
@@ -1850,7 +1874,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>342.8</v>
       </c>
@@ -1861,7 +1885,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>343.4</v>
       </c>
@@ -1872,7 +1896,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>344.5</v>
       </c>
@@ -1883,7 +1907,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>346.2</v>
       </c>
@@ -1894,7 +1918,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>347.8</v>
       </c>
@@ -1905,7 +1929,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>349.9</v>
       </c>
@@ -1916,7 +1940,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>351.3</v>
       </c>
@@ -1927,7 +1951,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>351.9</v>
       </c>
@@ -1938,7 +1962,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>353.2</v>
       </c>
@@ -1949,7 +1973,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>354.6</v>
       </c>
@@ -1960,7 +1984,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>355.3</v>
       </c>
@@ -1971,7 +1995,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>356.3</v>
       </c>
@@ -1982,7 +2006,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>357.4</v>
       </c>
@@ -1993,7 +2017,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>358.8</v>
       </c>
@@ -2004,7 +2028,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>360.4</v>
       </c>
@@ -2015,7 +2039,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>362.3</v>
       </c>
@@ -2026,7 +2050,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>365</v>
       </c>
@@ -2037,7 +2061,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>368.5</v>
       </c>
@@ -2048,7 +2072,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>373</v>
       </c>
@@ -2059,7 +2083,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>374.3</v>
       </c>
@@ -2070,7 +2094,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>377.8</v>
       </c>
@@ -2081,7 +2105,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>384.2</v>
       </c>
@@ -2092,7 +2116,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>387.6</v>
       </c>
@@ -2103,7 +2127,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>392.7</v>
       </c>
@@ -2114,7 +2138,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>396.2</v>
       </c>
@@ -2125,7 +2149,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>396.1</v>
       </c>
@@ -2136,7 +2160,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>396.6</v>
       </c>
@@ -2147,7 +2171,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>399.2</v>
       </c>
@@ -2158,7 +2182,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>403.1</v>
       </c>
@@ -2169,7 +2193,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>404.6</v>
       </c>
@@ -2180,7 +2204,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>406.3</v>
       </c>
@@ -2188,6 +2212,17 @@
         <v>3</v>
       </c>
       <c r="C50">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>411</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="8">
         <v>2023</v>
       </c>
     </row>
@@ -2198,15 +2233,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:A50"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>218.6</v>
       </c>
@@ -2228,7 +2263,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>219.2</v>
       </c>
@@ -2239,7 +2274,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>223.19</v>
       </c>
@@ -2250,7 +2285,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>225.34</v>
       </c>
@@ -2261,7 +2296,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>227.06</v>
       </c>
@@ -2272,7 +2307,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>227.26</v>
       </c>
@@ -2283,7 +2318,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>228.05</v>
       </c>
@@ -2294,7 +2329,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>227.98</v>
       </c>
@@ -2305,7 +2340,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>227.67</v>
       </c>
@@ -2316,7 +2351,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>228.44</v>
       </c>
@@ -2327,7 +2362,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>230.24</v>
       </c>
@@ -2338,7 +2373,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>232.59</v>
       </c>
@@ -2349,7 +2384,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>232.63</v>
       </c>
@@ -2360,7 +2395,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>233.26</v>
       </c>
@@ -2371,7 +2406,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>233.05</v>
       </c>
@@ -2382,7 +2417,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>232.65</v>
       </c>
@@ -2393,7 +2428,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>233.62</v>
       </c>
@@ -2404,7 +2439,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>235.49</v>
       </c>
@@ -2415,7 +2450,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>235.91</v>
       </c>
@@ -2426,7 +2461,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>234.53</v>
       </c>
@@ -2437,7 +2472,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>234.06</v>
       </c>
@@ -2448,7 +2483,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>234.58</v>
       </c>
@@ -2459,7 +2494,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>236.33</v>
       </c>
@@ -2470,7 +2505,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>239.4</v>
       </c>
@@ -2481,7 +2516,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>240.03</v>
       </c>
@@ -2492,7 +2527,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>242.06</v>
       </c>
@@ -2503,7 +2538,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>242.63</v>
       </c>
@@ -2514,7 +2549,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>242.89</v>
       </c>
@@ -2525,7 +2560,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>243.01</v>
       </c>
@@ -2536,7 +2571,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>244.77</v>
       </c>
@@ -2547,7 +2582,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>245.62</v>
       </c>
@@ -2558,7 +2593,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>246.21</v>
       </c>
@@ -2569,7 +2604,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>247.77</v>
       </c>
@@ -2580,7 +2615,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>249.62</v>
       </c>
@@ -2591,7 +2626,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>253.1</v>
       </c>
@@ -2602,7 +2637,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>256.66000000000003</v>
       </c>
@@ -2613,7 +2648,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>258.47000000000003</v>
       </c>
@@ -2624,7 +2659,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>260.33</v>
       </c>
@@ -2635,7 +2670,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>263.83999999999997</v>
       </c>
@@ -2646,7 +2681,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>267.05</v>
       </c>
@@ -2657,7 +2692,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>268.79000000000002</v>
       </c>
@@ -2668,7 +2703,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>270.14999999999998</v>
       </c>
@@ -2679,7 +2714,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>273.76</v>
       </c>
@@ -2690,7 +2725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>276.12</v>
       </c>
@@ -2701,7 +2736,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>276.31</v>
       </c>
@@ -2712,7 +2747,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>280</v>
       </c>
@@ -2723,7 +2758,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>281.89999999999998</v>
       </c>
@@ -2734,7 +2769,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>286.39999999999998</v>
       </c>
@@ -2745,7 +2780,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>286.7</v>
       </c>
@@ -2753,6 +2788,17 @@
         <v>3</v>
       </c>
       <c r="C50">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>289.79000000000002</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="8">
         <v>2023</v>
       </c>
     </row>
@@ -2763,15 +2809,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A50" sqref="A2:A50"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2782,7 +2828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>97.679211870000003</v>
       </c>
@@ -2793,7 +2839,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>97.759031789999995</v>
       </c>
@@ -2804,7 +2850,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>97.617418020000002</v>
       </c>
@@ -2815,7 +2861,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>98.165424299999998</v>
       </c>
@@ -2826,7 +2872,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>98.298055500000004</v>
       </c>
@@ -2837,7 +2883,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>98.568195180000004</v>
       </c>
@@ -2848,7 +2894,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>99.291642809999999</v>
       </c>
@@ -2859,7 +2905,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>99.193890580000001</v>
       </c>
@@ -2870,7 +2916,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>99.097494049999995</v>
       </c>
@@ -2881,7 +2927,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>99.024797930000005</v>
       </c>
@@ -2892,7 +2938,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>99.231689320000001</v>
       </c>
@@ -2903,7 +2949,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>99.115445679999993</v>
       </c>
@@ -2914,7 +2960,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>99.225243599999999</v>
       </c>
@@ -2925,7 +2971,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>99.508993009999998</v>
       </c>
@@ -2936,7 +2982,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>99.478912469999997</v>
       </c>
@@ -2947,7 +2993,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>99.040237869999999</v>
       </c>
@@ -2958,7 +3004,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>98.896445709999995</v>
       </c>
@@ -2969,7 +3015,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>98.875348310000007</v>
       </c>
@@ -2980,7 +3026,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>99.127692339999996</v>
       </c>
@@ -2991,7 +3037,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>99.123686579999998</v>
       </c>
@@ -3002,7 +3048,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>99.393758820000002</v>
       </c>
@@ -3013,7 +3059,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>99.472841919999993</v>
       </c>
@@ -3024,7 +3070,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>99.474323560000002</v>
       </c>
@@ -3035,7 +3081,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>100</v>
       </c>
@@ -3046,7 +3092,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>100.18</v>
       </c>
@@ -3057,7 +3103,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>99.921244529999996</v>
       </c>
@@ -3068,7 +3114,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>99.949181179999997</v>
       </c>
@@ -3079,7 +3125,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>100.2384619</v>
       </c>
@@ -3090,7 +3136,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>100.22344409999999</v>
       </c>
@@ -3101,7 +3147,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>100.7619232</v>
       </c>
@@ -3112,7 +3158,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>100.5549128</v>
       </c>
@@ -3123,7 +3169,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>100.8332302</v>
       </c>
@@ -3134,7 +3180,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>101.4674681</v>
       </c>
@@ -3145,7 +3191,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>101.96356230000001</v>
       </c>
@@ -3156,7 +3202,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>102.80237959999999</v>
       </c>
@@ -3167,7 +3213,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>103.2989079</v>
       </c>
@@ -3178,7 +3224,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>103.6812099</v>
       </c>
@@ -3189,7 +3235,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>104.8147022</v>
       </c>
@@ -3200,7 +3246,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>105.7394122</v>
       </c>
@@ -3211,7 +3257,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>107.40707740000001</v>
       </c>
@@ -3222,7 +3268,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>108.97</v>
       </c>
@@ -3233,7 +3279,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>110.89</v>
       </c>
@@ -3244,7 +3290,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>112.1</v>
       </c>
@@ -3255,7 +3301,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>113.06</v>
       </c>
@@ -3266,7 +3312,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>111.98</v>
       </c>
@@ -3277,7 +3323,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>111.13</v>
       </c>
@@ -3288,7 +3334,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>111.29</v>
       </c>
@@ -3299,7 +3345,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>111.44</v>
       </c>
@@ -3310,7 +3356,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>111.62</v>
       </c>
@@ -3318,6 +3364,17 @@
         <v>3</v>
       </c>
       <c r="C50">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>110.66</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="8">
         <v>2023</v>
       </c>
     </row>
@@ -3328,15 +3385,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3347,7 +3404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>95.250891820000007</v>
       </c>
@@ -3358,7 +3415,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>95.604163560000003</v>
       </c>
@@ -3369,7 +3426,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>96.229748920000006</v>
       </c>
@@ -3380,7 +3437,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>96.737577040000005</v>
       </c>
@@ -3391,7 +3448,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>96.708137730000004</v>
       </c>
@@ -3402,7 +3459,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>96.53150187</v>
       </c>
@@ -3413,7 +3470,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>96.980451360000004</v>
       </c>
@@ -3424,7 +3481,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>97.311643619999998</v>
       </c>
@@ -3435,7 +3492,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>97.679635009999998</v>
       </c>
@@ -3446,7 +3503,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>98.334659680000001</v>
       </c>
@@ -3457,7 +3514,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>98.702651079999995</v>
       </c>
@@ -3468,7 +3525,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>98.901366429999996</v>
       </c>
@@ -3479,7 +3536,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>99.225198849999998</v>
       </c>
@@ -3490,7 +3547,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>99.100081779999996</v>
       </c>
@@ -3501,7 +3558,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>98.584893829999999</v>
       </c>
@@ -3512,7 +3569,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>97.775312769999999</v>
       </c>
@@ -3523,7 +3580,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>97.664915350000001</v>
       </c>
@@ -3534,7 +3591,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>99.328236439999998</v>
       </c>
@@ -3545,7 +3602,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>101.1976327</v>
       </c>
@@ -3556,7 +3613,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>101.9851343</v>
       </c>
@@ -3567,7 +3624,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>102.596</v>
       </c>
@@ -3578,7 +3635,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>103.276</v>
       </c>
@@ -3589,7 +3646,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>103.893</v>
       </c>
@@ -3600,7 +3657,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>104.39400000000001</v>
       </c>
@@ -3611,7 +3668,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>105.404</v>
       </c>
@@ -3622,7 +3679,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>106.124</v>
       </c>
@@ -3633,7 +3690,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>106.764</v>
       </c>
@@ -3644,7 +3701,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>107.206</v>
       </c>
@@ -3655,7 +3712,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>107.901</v>
       </c>
@@ -3666,7 +3723,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>108.58499999999999</v>
       </c>
@@ -3677,7 +3734,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>109.16800000000001</v>
       </c>
@@ -3688,7 +3745,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>110.039</v>
       </c>
@@ -3699,7 +3756,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>110.535</v>
       </c>
@@ -3710,7 +3767,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>111.244</v>
       </c>
@@ -3721,7 +3778,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>112.446</v>
       </c>
@@ -3732,7 +3789,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>113.26300000000001</v>
       </c>
@@ -3743,7 +3800,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>114.602</v>
       </c>
@@ -3754,7 +3811,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>115.658</v>
       </c>
@@ -3765,7 +3822,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>116.431</v>
       </c>
@@ -3776,7 +3833,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>117.544</v>
       </c>
@@ -3787,7 +3844,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>118.122</v>
       </c>
@@ -3798,7 +3855,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>118.877</v>
       </c>
@@ -3809,7 +3866,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>119.468</v>
       </c>
@@ -3820,7 +3877,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>119.718</v>
       </c>
@@ -3831,7 +3888,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>120.07</v>
       </c>
@@ -3842,7 +3899,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>120.41</v>
       </c>
@@ -3853,7 +3910,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>120.97</v>
       </c>
@@ -3864,7 +3921,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>122.13</v>
       </c>
@@ -3875,7 +3932,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>122.9</v>
       </c>
@@ -3883,6 +3940,17 @@
         <v>3</v>
       </c>
       <c r="C50">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>123.04</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="8">
         <v>2023</v>
       </c>
     </row>
@@ -3893,15 +3961,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3912,7 +3980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>104.3818788</v>
       </c>
@@ -3923,7 +3991,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>104.47547969999999</v>
       </c>
@@ -3934,7 +4002,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>104.9075837</v>
       </c>
@@ -3945,7 +4013,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>105.20208649999999</v>
       </c>
@@ -3956,7 +4024,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>105.29618739999999</v>
       </c>
@@ -3967,7 +4035,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>104.9474841</v>
       </c>
@@ -3978,7 +4046,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>105.17908629999999</v>
       </c>
@@ -3989,7 +4057,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>104.8893836</v>
       </c>
@@ -4000,7 +4068,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>104.8395831</v>
       </c>
@@ -4011,7 +4079,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>104.7846826</v>
       </c>
@@ -4022,7 +4090,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>104.7690824</v>
       </c>
@@ -4033,7 +4101,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>104.6009808</v>
       </c>
@@ -4044,7 +4112,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>104.7532823</v>
       </c>
@@ -4055,7 +4123,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>104.49057980000001</v>
       </c>
@@ -4066,7 +4134,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>104.0266755</v>
       </c>
@@ -4077,7 +4145,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>102.7049631</v>
       </c>
@@ -4088,7 +4156,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>102.69636300000001</v>
       </c>
@@ -4099,7 +4167,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>103.23016800000001</v>
       </c>
@@ -4110,7 +4178,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>102.8125641</v>
       </c>
@@ -4121,7 +4189,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>102.8296642</v>
       </c>
@@ -4132,7 +4200,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>102.8910648</v>
       </c>
@@ -4143,7 +4211,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>102.74256339999999</v>
       </c>
@@ -4154,7 +4222,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>102.63536240000001</v>
       </c>
@@ -4165,7 +4233,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>102.9521654</v>
       </c>
@@ -4176,7 +4244,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>104.0266755</v>
       </c>
@@ -4187,7 +4255,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>103.8786741</v>
       </c>
@@ -4198,7 +4266,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>104.3266783</v>
       </c>
@@ -4209,7 +4277,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>104.4563795</v>
       </c>
@@ -4220,7 +4288,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>104.6722815</v>
       </c>
@@ -4231,7 +4299,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>104.8612833</v>
       </c>
@@ -4242,7 +4310,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>105.251687</v>
       </c>
@@ -4253,7 +4321,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>105.2900873</v>
       </c>
@@ -4264,7 +4332,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>105.44888880000001</v>
       </c>
@@ -4275,7 +4343,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>105.7662918</v>
       </c>
@@ -4286,7 +4354,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>106.0843948</v>
       </c>
@@ -4297,7 +4365,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>105.65399069999999</v>
       </c>
@@ -4308,7 +4376,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>105.98759389999999</v>
       </c>
@@ -4319,7 +4387,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>106.7203007</v>
       </c>
@@ -4330,7 +4398,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>107.64890939999999</v>
       </c>
@@ -4341,7 +4409,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>108.2695152</v>
       </c>
@@ -4352,7 +4420,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>109.08952290000001</v>
       </c>
@@ -4363,7 +4431,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>110.3</v>
       </c>
@@ -4374,7 +4442,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>108.9</v>
       </c>
@@ -4385,7 +4453,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>107.5</v>
       </c>
@@ -4396,7 +4464,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>107.5</v>
       </c>
@@ -4407,7 +4475,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>107.5</v>
       </c>
@@ -4418,7 +4486,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>107.7</v>
       </c>
@@ -4429,7 +4497,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>107.8</v>
       </c>
@@ -4440,7 +4508,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>108.9</v>
       </c>
@@ -4448,6 +4516,17 @@
         <v>3</v>
       </c>
       <c r="C50">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
+        <v>108.9</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="8">
         <v>2023</v>
       </c>
     </row>
@@ -4458,15 +4537,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:A50"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="156" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4477,7 +4556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>103.108</v>
       </c>
@@ -4488,7 +4567,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>103.07899999999999</v>
       </c>
@@ -4499,7 +4578,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103.476</v>
       </c>
@@ -4510,7 +4589,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>103.53100000000001</v>
       </c>
@@ -4521,7 +4600,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>103.233</v>
       </c>
@@ -4532,7 +4611,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>103.29900000000001</v>
       </c>
@@ -4544,7 +4623,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>103.687</v>
       </c>
@@ -4555,7 +4634,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>103.67</v>
       </c>
@@ -4566,7 +4645,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>103.94199999999999</v>
       </c>
@@ -4577,7 +4656,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>104.503</v>
       </c>
@@ -4588,7 +4667,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>105.346</v>
       </c>
@@ -4599,7 +4678,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>105.934</v>
       </c>
@@ -4610,7 +4689,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>106.447</v>
       </c>
@@ -4621,7 +4700,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>106.889</v>
       </c>
@@ -4632,7 +4711,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>106.83799999999999</v>
       </c>
@@ -4643,7 +4722,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>105.755</v>
       </c>
@@ -4654,7 +4733,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>106.16200000000001</v>
       </c>
@@ -4665,7 +4744,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>106.74299999999999</v>
       </c>
@@ -4676,7 +4755,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>107.444</v>
       </c>
@@ -4687,7 +4766,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>107.867</v>
       </c>
@@ -4698,7 +4777,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>108.114</v>
       </c>
@@ -4709,7 +4788,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>108.774</v>
       </c>
@@ -4720,7 +4799,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>108.85599999999999</v>
       </c>
@@ -4731,7 +4810,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>109.271</v>
       </c>
@@ -4742,7 +4821,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>110.21</v>
       </c>
@@ -4753,7 +4832,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>110.907</v>
       </c>
@@ -4764,7 +4843,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>111.824</v>
       </c>
@@ -4775,7 +4854,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>112.19</v>
       </c>
@@ -4786,7 +4865,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>112.419</v>
       </c>
@@ -4797,7 +4876,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>113.018</v>
       </c>
@@ -4808,7 +4887,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>113.682</v>
       </c>
@@ -4819,7 +4898,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>113.899</v>
       </c>
@@ -4830,7 +4909,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>114.601</v>
       </c>
@@ -4841,7 +4920,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>115.56100000000001</v>
       </c>
@@ -4852,7 +4931,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>116.884</v>
       </c>
@@ -4863,7 +4942,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>117.30800000000001</v>
       </c>
@@ -4874,7 +4953,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>118.002</v>
       </c>
@@ -4885,7 +4964,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>118.98099999999999</v>
       </c>
@@ -4896,7 +4975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>120.15900000000001</v>
       </c>
@@ -4907,7 +4986,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>120.809</v>
       </c>
@@ -4918,7 +4997,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>121.02200000000001</v>
       </c>
@@ -4929,7 +5008,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>122.044</v>
       </c>
@@ -4940,7 +5019,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>122.95</v>
       </c>
@@ -4951,7 +5030,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>123.8</v>
       </c>
@@ -4962,7 +5041,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>124.57</v>
       </c>
@@ -4973,7 +5052,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>125.3</v>
       </c>
@@ -4984,7 +5063,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>126</v>
       </c>
@@ -4995,7 +5074,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>126.5</v>
       </c>
@@ -5006,7 +5085,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>127.3</v>
       </c>
@@ -5014,6 +5093,17 @@
         <v>3</v>
       </c>
       <c r="C50">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>127.94</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="8">
         <v>2023</v>
       </c>
     </row>
